--- a/biology/Botanique/J.E.Gray/J.E.Gray.xlsx
+++ b/biology/Botanique/J.E.Gray/J.E.Gray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Edward Gray est un zoologiste britannique, né le 12 février 1800 à Walsall et mort le 7 mars 1875. Il est le frère le plus âgé de George Robert Gray, également zoologiste. Leur père est Samuel Frederick Gray (1766-1828), un pharmacologiste et un botaniste renommé à son époque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille s'installe assez tôt à Londres où Gray commence à étudier la médecine à 16 ans. Il devient l'assistant de son père lorsque celui-ci rédige The Natural Arrangement of British Plants (1821). Après avoir été refusé à la Société linnéenne de Londres, il se détourne de la botanique et se consacre à la zoologie. Il travaille, à partir de 1824, au département de zoologie du British Museum où il aide John George Children à la rédaction du catalogue des collections de reptiles. En 1840, il remplace Children au poste de conservateur de ce département, fonction qu'il occupera jusqu'à Noël 1874.
 Il publie plusieurs catalogues des collections du muséum dans lesquels il analyse les groupes animaux mais aussi décrit de nouvelles espèces. Il participe activement à l'enrichissement des collections de zoologie du British Museum qui deviennent parmi les plus importantes du monde. On estime qu'un million de spécimens supplémentaires viennent s'ajouter aux collections durant la direction de Gray.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1821 : A natural arrangement of Mollusca, according to their internal structure. London Medical Repository 15 : 229–239.
 1821 : On the natural arrangement of Vertebrose Animals. London Medical Repository 15 : 296–310.
